--- a/va_facility_data_2025-02-20/Morehead VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Morehead%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Morehead VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Morehead%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R24164d35914c41338237255e41bb478f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf64343977f3341008a2cddced73a8e9a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd80b5e9d66134a13b48585f953d5f360"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R89d8f101934640f98b9972545bf5ab1b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfe67f3af5bde497883385c19783d0a02"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R04278a4ff10142a387898e58e2671cce"/>
   </x:sheets>
 </x:workbook>
 </file>
